--- a/TestOutput/OrangeHRMResult.xlsx
+++ b/TestOutput/OrangeHRMResult.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJTProjectTesting\OrangeHRMDemo\TestInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FB15E-B043-40E8-88A3-177065CFD9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F94CAF2-4527-4B23-BBD4-9EA29DC3AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C8F25DC-CE5F-4680-B0AC-32A722DC3E7F}"/>
+    <workbookView xWindow="2550" yWindow="990" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{2C8F25DC-CE5F-4680-B0AC-32A722DC3E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="ApplicationLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="MasterTestCases" sheetId="5" r:id="rId2"/>
+    <sheet name="AddEmployee" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -115,6 +117,120 @@
   </si>
   <si>
     <t>Qedge123!@#</t>
+  </si>
+  <si>
+    <t>wait for PIM menu</t>
+  </si>
+  <si>
+    <t>mouseHover</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>mouse Hover PIM menu</t>
+  </si>
+  <si>
+    <t>//a[@id='menu_pim_viewPimModule']</t>
+  </si>
+  <si>
+    <t>wait for AddEmployee</t>
+  </si>
+  <si>
+    <t>menu_pim_addEmployee</t>
+  </si>
+  <si>
+    <t>click AddEmployee</t>
+  </si>
+  <si>
+    <t>wait for firstname</t>
+  </si>
+  <si>
+    <t>enter firstname</t>
+  </si>
+  <si>
+    <t>wait for last name</t>
+  </si>
+  <si>
+    <t>enter lastname</t>
+  </si>
+  <si>
+    <t>wait for save button</t>
+  </si>
+  <si>
+    <t>click save button</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>capture employee Id</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>menu_pim_viewEmployeeList</t>
+  </si>
+  <si>
+    <t>wait for employee list</t>
+  </si>
+  <si>
+    <t>click Employee list</t>
+  </si>
+  <si>
+    <t>validate Employee id</t>
+  </si>
+  <si>
+    <t>validateEmployeeTable</t>
+  </si>
+  <si>
+    <t>//table[@id='resultTable']</t>
+  </si>
+  <si>
+    <t>reddy</t>
+  </si>
+  <si>
+    <t>anamika</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ExecutionMode</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>ApplicationLogin</t>
+  </si>
+  <si>
+    <t>AddEmployee</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>PASS</t>
@@ -125,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +262,360 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -238,14 +708,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -253,6 +727,65 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -570,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8718E8-5640-4EB7-B9FF-351E19CEB6EA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +1112,7 @@
     <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="21.0" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="false"/>
     <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="false"/>
   </cols>
@@ -620,8 +1153,8 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="6">
-        <v>27</v>
+      <c r="F2" t="s" s="11">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,8 +1173,8 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="7">
-        <v>27</v>
+      <c r="F3" t="s" s="13">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,8 +1193,8 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="8">
-        <v>27</v>
+      <c r="F4" t="s" s="15">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,8 +1213,8 @@
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s" s="9">
-        <v>27</v>
+      <c r="F5" t="s" s="17">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,8 +1233,8 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="10">
-        <v>27</v>
+      <c r="F6" t="s" s="19">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,8 +1253,8 @@
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="11">
-        <v>27</v>
+      <c r="F7" t="s" s="21">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,8 +1273,8 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="12">
-        <v>27</v>
+      <c r="F8" t="s" s="23">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,15 +1293,617 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s" s="13">
+      <c r="F9" t="s" s="25">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2563F43-61D3-4FF1-9F3D-69ED014DB527}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s" s="76">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597F0BCE-3962-4305-BA0B-F52C68146F37}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="39.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="33">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s" s="37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s" s="41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s" s="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s" s="49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="51">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s" s="53">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s" s="57">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s" s="59">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="61">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s" s="63">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s" s="67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s" s="71">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s" s="75">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{61DEEAB4-09EE-464F-9241-43A4FA333516}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>